--- a/Temp/PM.xlsx
+++ b/Temp/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACFA\2020\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CFFCA4-86F2-4560-B8A9-A074ECDBF14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88189314-8A8E-4F10-ABE6-68D57300D03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="search4">'[4]Work Area'!#REF!</definedName>
     <definedName name="Static">'[1]Problem map'!$AF$7:$AF$1090</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="110">
   <si>
     <t>Analytical Thinking</t>
   </si>
@@ -114,36 +114,6 @@
   </si>
   <si>
     <t>LODescription</t>
-  </si>
-  <si>
-    <t>01-01  Define tax, taxpayer, incidence, and jurisdiction.</t>
-  </si>
-  <si>
-    <t>01-02  Express the relationship between tax base, rate, and revenue as a formula.</t>
-  </si>
-  <si>
-    <t>01-03  Describe the taxes levied by local governments.</t>
-  </si>
-  <si>
-    <t>01-04  Describe the taxes levied by state governments.</t>
-  </si>
-  <si>
-    <t>01-05  Describe the taxes levied by the federal government.</t>
-  </si>
-  <si>
-    <t>01-06  Explain the structure of the value-added tax levied by foreign governments.</t>
-  </si>
-  <si>
-    <t>02-01  Explain the concept of sufficiency of a good tax.</t>
-  </si>
-  <si>
-    <t>02-02  Differentiate between the income effect and the substitution effect.</t>
-  </si>
-  <si>
-    <t>02-06  Differentiate between regressive, proportionate, and progressive rate structures.</t>
-  </si>
-  <si>
-    <t>02-07  Explain the difference between marginal and average tax rates.</t>
   </si>
   <si>
     <t xml:space="preserve">D4-1 </t>
@@ -314,51 +284,6 @@
     <t>CP4-58</t>
   </si>
   <si>
-    <t>TF4-01</t>
-  </si>
-  <si>
-    <t>TF4-02</t>
-  </si>
-  <si>
-    <t>TF4-03</t>
-  </si>
-  <si>
-    <t>TF4-04</t>
-  </si>
-  <si>
-    <t>TF4-05</t>
-  </si>
-  <si>
-    <t>TF4-06</t>
-  </si>
-  <si>
-    <t>MC4-07</t>
-  </si>
-  <si>
-    <t>MC4-08</t>
-  </si>
-  <si>
-    <t>MC4-09</t>
-  </si>
-  <si>
-    <t>MC4-10</t>
-  </si>
-  <si>
-    <t>MC4-11</t>
-  </si>
-  <si>
-    <t>MC4-12</t>
-  </si>
-  <si>
-    <t>MC4-13</t>
-  </si>
-  <si>
-    <t>MC4-14</t>
-  </si>
-  <si>
-    <t>MC4-15</t>
-  </si>
-  <si>
     <t>Essay</t>
   </si>
   <si>
@@ -369,9 +294,6 @@
   </si>
   <si>
     <t>Comprehensive Problem</t>
-  </si>
-  <si>
-    <t>True / False</t>
   </si>
   <si>
     <t xml:space="preserve"> 04-01</t>
@@ -401,9 +323,6 @@
     <t xml:space="preserve"> 04-01;  04-02;  04-03</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-02</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Individual Income Tax Formula</t>
   </si>
   <si>
@@ -428,16 +347,10 @@
     <t>Analytical Thinking; Reflective Thinking</t>
   </si>
   <si>
-    <t>BB Critical Thinking</t>
-  </si>
-  <si>
     <t>Apply</t>
   </si>
   <si>
     <t>Analyze</t>
-  </si>
-  <si>
-    <t>Understand</t>
   </si>
   <si>
     <t>2 Medium</t>
@@ -472,12 +385,24 @@
   <si>
     <t>50 min</t>
   </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>LO 4-1 Describe the formula for calculating an individual taxpayer’s taxes due or refund.</t>
+  </si>
+  <si>
+    <t>LO 4-2 Explain the requirements for determining who qualifies as a taxpayer’s dependent.</t>
+  </si>
+  <si>
+    <t>LO 4-3 Determine a taxpayer’s filing status.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -519,6 +444,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,8 +473,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -563,9 +500,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -576,9 +510,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0EC3B1EC-6EFC-4024-BE91-E6C4E87AFE26}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -25863,9 +25799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B488869-8407-4030-B979-C4348A012DB7}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25918,1506 +25856,1818 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="E2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="E5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="E6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="E8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="E11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="E13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="E14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="E16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="E17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="E18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="E19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="E20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="E21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="E22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="E23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="E24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="E25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="E26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="F27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="F28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="F29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="E30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="E31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="E32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="E33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J45" s="9" t="s">
+      <c r="F45" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J46" s="9" t="s">
+      <c r="F46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J47" s="9" t="s">
+      <c r="F47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" s="9" t="s">
+      <c r="F48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J52" s="9" t="s">
+      <c r="F52" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" s="9" t="s">
+      <c r="F53" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -27426,598 +27676,142 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J57" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -28028,10 +27822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D709A1B-4707-2549-A7EA-E644DA9477EF}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28045,53 +27839,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A4" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/PM.xlsx
+++ b/Temp/PM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACFA\2020\xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishnan.G\Desktop\Review\Work\Spilker EOC\12e\Tags\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88189314-8A8E-4F10-ABE6-68D57300D03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0160E09-B0B4-4228-BB00-9F7DDB51E324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="search4">'[4]Work Area'!#REF!</definedName>
     <definedName name="Static">'[1]Problem map'!$AF$7:$AF$1090</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="119">
   <si>
     <t>Analytical Thinking</t>
   </si>
@@ -116,172 +114,223 @@
     <t>LODescription</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-1 </t>
+    <t>D5-1</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-2 </t>
+    <t>D5-2</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-3 </t>
+    <t>D5-3</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-4 </t>
+    <t>D5-4</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-5 </t>
+    <t>D5-5</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-6 </t>
+    <t>D5-6</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-7 </t>
+    <t>D5-7</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-8 </t>
+    <t>D5-8</t>
   </si>
   <si>
-    <t xml:space="preserve">D4-9 </t>
+    <t>D5-9</t>
   </si>
   <si>
-    <t>D4-10</t>
+    <t>D5-10</t>
   </si>
   <si>
-    <t>D4-11</t>
+    <t>D5-11</t>
   </si>
   <si>
-    <t>D4-12</t>
+    <t>D5-12</t>
   </si>
   <si>
-    <t>D4-13</t>
+    <t>D5-13</t>
   </si>
   <si>
-    <t>D4-14</t>
+    <t>D5-14</t>
   </si>
   <si>
-    <t>D4-15</t>
+    <t>D5-15</t>
   </si>
   <si>
-    <t>D4-16</t>
+    <t>D5-16</t>
   </si>
   <si>
-    <t>D4-17</t>
+    <t>D5-17</t>
   </si>
   <si>
-    <t>D4-18</t>
+    <t>D5-18</t>
   </si>
   <si>
-    <t>D4-19</t>
+    <t>D5-19</t>
   </si>
   <si>
-    <t>D4-20</t>
+    <t>D5-20</t>
   </si>
   <si>
-    <t>D4-21</t>
+    <t>D5-21</t>
   </si>
   <si>
-    <t>D4-22</t>
+    <t>D5-22</t>
   </si>
   <si>
-    <t>D4-23</t>
+    <t>D5-23</t>
   </si>
   <si>
-    <t>D4-24</t>
+    <t>D5-24</t>
   </si>
   <si>
-    <t>D4-25</t>
+    <t>D5-25</t>
   </si>
   <si>
-    <t>D4-26</t>
+    <t>D5-26</t>
   </si>
   <si>
-    <t>D4-27</t>
+    <t>D5-27</t>
   </si>
   <si>
-    <t>D4-28</t>
+    <t>D5-28</t>
   </si>
   <si>
-    <t xml:space="preserve">P4-29 </t>
+    <t>D5-29</t>
   </si>
   <si>
-    <t>P4-30</t>
+    <t>D5-30</t>
   </si>
   <si>
-    <t>P4-31</t>
+    <t>D5-31</t>
   </si>
   <si>
-    <t>P4-32</t>
+    <t>D5-32</t>
   </si>
   <si>
-    <t>P4-33</t>
+    <t>D5-33</t>
   </si>
   <si>
-    <t>P4-34</t>
+    <t>D5-34</t>
   </si>
   <si>
-    <t>P4-35</t>
+    <t>D5-35</t>
   </si>
   <si>
-    <t>P4-36</t>
+    <t>D5-36</t>
   </si>
   <si>
-    <t>P4-37</t>
+    <t>D5-37</t>
   </si>
   <si>
-    <t>P4-38</t>
+    <t>D5-38</t>
   </si>
   <si>
-    <t>P4-39</t>
+    <t>P5-39</t>
   </si>
   <si>
-    <t>P4-40</t>
+    <t>P5-40</t>
   </si>
   <si>
-    <t>P4-42</t>
+    <t>P5-41</t>
   </si>
   <si>
-    <t>P4-43</t>
+    <t>P5-43</t>
   </si>
   <si>
-    <t>P4-44</t>
+    <t>P5-44</t>
   </si>
   <si>
-    <t>P4-45</t>
+    <t>P5-46</t>
   </si>
   <si>
-    <t>P4-46</t>
+    <t>P5-47</t>
   </si>
   <si>
-    <t>P4-47</t>
+    <t>P5-48</t>
   </si>
   <si>
-    <t>P4-48</t>
+    <t>P5-49</t>
   </si>
   <si>
-    <t>P4-49</t>
+    <t>P5-50</t>
   </si>
   <si>
-    <t>P4-50</t>
+    <t>P5-51</t>
   </si>
   <si>
-    <t>P4-51</t>
+    <t>P5-52</t>
   </si>
   <si>
-    <t>P4-52</t>
+    <t>P5-53</t>
   </si>
   <si>
-    <t>P4-54</t>
+    <t>P5-54</t>
   </si>
   <si>
-    <t xml:space="preserve">CP4-55 </t>
+    <t>P5-55</t>
   </si>
   <si>
-    <t>CP4-56</t>
+    <t>P5-56</t>
   </si>
   <si>
-    <t>CP4-57</t>
+    <t>P5-57</t>
   </si>
   <si>
-    <t>CP4-58</t>
+    <t>P5-58</t>
+  </si>
+  <si>
+    <t>P5-59</t>
+  </si>
+  <si>
+    <t>P5-60</t>
+  </si>
+  <si>
+    <t>P5-62</t>
+  </si>
+  <si>
+    <t>P5-63</t>
+  </si>
+  <si>
+    <t>P5-64</t>
+  </si>
+  <si>
+    <t>P5-65</t>
+  </si>
+  <si>
+    <t>P5-66</t>
+  </si>
+  <si>
+    <t>P5-67</t>
+  </si>
+  <si>
+    <t>P5-69</t>
+  </si>
+  <si>
+    <t>P5-70</t>
+  </si>
+  <si>
+    <t>P5-71</t>
+  </si>
+  <si>
+    <t>P5-72</t>
+  </si>
+  <si>
+    <t>CP5-73</t>
+  </si>
+  <si>
+    <t>CP5-74</t>
+  </si>
+  <si>
+    <t>CP5-75</t>
+  </si>
+  <si>
+    <t>CP5-76</t>
+  </si>
+  <si>
+    <t>CP5-77</t>
   </si>
   <si>
     <t>Essay</t>
@@ -290,55 +339,28 @@
     <t>Problem</t>
   </si>
   <si>
-    <t>Check All that Apply</t>
-  </si>
-  <si>
     <t>Comprehensive Problem</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-01</t>
+    <t xml:space="preserve"> 05-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-01 </t>
+    <t xml:space="preserve"> 05-02</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-02 </t>
+    <t xml:space="preserve"> 05-03</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-03</t>
+    <t xml:space="preserve"> 05-01;  05-02;  05-03</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-03 </t>
+    <t xml:space="preserve"> Realization and Recognition of Income</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-01;  04-02 </t>
+    <t xml:space="preserve"> Exclusion Provisions</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04-02;  04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04-02;  04-03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04-01;  04-02;  04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Individual Income Tax Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Personal and Dependency Exemptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filing Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filing Status; Personal and Dependency Exemptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filing Status;  Personal and Dependency Exemptions;  The Individual Income Tax Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filing Status;  Personal and Dependency Exemptions; The Individual Income Tax Formula</t>
+    <t xml:space="preserve"> Types of Income</t>
   </si>
   <si>
     <t>Reflective Thinking</t>
@@ -350,59 +372,62 @@
     <t>Apply</t>
   </si>
   <si>
-    <t>Analyze</t>
+    <t>2 Medium</t>
   </si>
   <si>
-    <t>2 Medium</t>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Analyze</t>
   </si>
   <si>
     <t>3 Hard</t>
   </si>
   <si>
-    <t>1 Easy</t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>20 min</t>
-  </si>
-  <si>
     <t>25 min</t>
   </si>
   <si>
-    <t>5 min</t>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>1 Easy</t>
   </si>
   <si>
     <t>15 min</t>
   </si>
   <si>
-    <t>35 min</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>50 min</t>
   </si>
   <si>
-    <t>Na</t>
+    <t>60 min</t>
   </si>
   <si>
-    <t>LO 4-1 Describe the formula for calculating an individual taxpayer’s taxes due or refund.</t>
+    <t>45 min</t>
   </si>
   <si>
-    <t>LO 4-2 Explain the requirements for determining who qualifies as a taxpayer’s dependent.</t>
+    <t>120 min</t>
   </si>
   <si>
-    <t>LO 4-3 Determine a taxpayer’s filing status.</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>LO 5-1 Apply the concept of realization.</t>
+  </si>
+  <si>
+    <t>LO 5-2 Discuss the distinctions between the various sources of income, including income from services and property.</t>
+  </si>
+  <si>
+    <t>LO 5-3 Apply basic income exclusion provisions to compute gross income.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,40 +440,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -473,48 +468,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0EC3B1EC-6EFC-4024-BE91-E6C4E87AFE26}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -25799,11 +25777,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B488869-8407-4030-B979-C4348A012DB7}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25858,1960 +25834,2555 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>72</v>
+      <c r="K2" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>72</v>
+      <c r="K3" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>72</v>
+      <c r="K4" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>72</v>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>72</v>
+      <c r="K6" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>72</v>
+      <c r="K7" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
+      <c r="K8" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>72</v>
+      <c r="K9" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="E10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>72</v>
+      <c r="K10" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>72</v>
+      <c r="K11" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="E12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>72</v>
+      <c r="K12" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>72</v>
+      <c r="K13" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="E14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>72</v>
+      <c r="K14" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>72</v>
+      <c r="K15" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="E16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>72</v>
+      <c r="K16" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="E17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>72</v>
+      <c r="K17" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>72</v>
+      <c r="K18" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>72</v>
+      <c r="K19" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>72</v>
+      <c r="K20" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>72</v>
+      <c r="K21" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="E22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>72</v>
+      <c r="K22" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="E23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>72</v>
+      <c r="K23" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="I24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>72</v>
+      <c r="K24" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="I25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>72</v>
+      <c r="K25" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>72</v>
+      <c r="K26" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="I27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>72</v>
+      <c r="K27" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="I28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>72</v>
+      <c r="K28" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="I29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>72</v>
+      <c r="K29" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>73</v>
+      <c r="I30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>73</v>
+      <c r="I31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="B32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>73</v>
+      <c r="I32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="B33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>73</v>
+      <c r="I33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>73</v>
+      <c r="I34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="B35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>73</v>
+      <c r="I35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="B36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="I36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>73</v>
+      <c r="K36" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="B37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>73</v>
+      <c r="I37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="B38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="I38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>73</v>
+      <c r="K38" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="B39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>73</v>
+      <c r="I39" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="11" t="s">
+      <c r="B40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>73</v>
+      <c r="D40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="B41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="8" t="s">
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>74</v>
+      <c r="K41" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="11" t="s">
+      <c r="B42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>74</v>
+      <c r="D42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>74</v>
+      <c r="D43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="11" t="s">
+      <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>74</v>
+      <c r="D44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>74</v>
+      <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="B46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>74</v>
+      <c r="K46" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="8" t="s">
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>73</v>
+      <c r="K47" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="C48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="D48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>73</v>
+      <c r="K48" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>73</v>
+      <c r="C49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="B50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>73</v>
+      <c r="C50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>73</v>
+      <c r="C51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" s="8" t="s">
+      <c r="C52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>73</v>
+      <c r="K52" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="C53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>14</v>
+      <c r="I53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J54" s="10" t="s">
+      <c r="C54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>75</v>
+      <c r="K54" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="B55" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J55" s="10" t="s">
+      <c r="C55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>75</v>
+      <c r="K55" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="B56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56" s="11" t="s">
+      <c r="C56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="H56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>75</v>
+      <c r="K56" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="B70" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="I70" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J57" s="10" t="s">
+      <c r="I71" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>75</v>
+      <c r="K71" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -27825,7 +28396,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27839,18 +28410,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>107</v>
+      <c r="A2" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>108</v>
+      <c r="A3" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>109</v>
+      <c r="A4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/PM.xlsx
+++ b/Temp/PM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishnan.G\Desktop\Review\Work\Spilker EOC\12e\Tags\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babloo\Desktop\Tag checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0160E09-B0B4-4228-BB00-9F7DDB51E324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF16B53-B17B-405F-878C-C057AC83B2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,10 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="119">
-  <si>
-    <t>Analytical Thinking</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>AACSB</t>
   </si>
@@ -102,9 +101,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Worksheet</t>
   </si>
   <si>
@@ -114,341 +110,131 @@
     <t>LODescription</t>
   </si>
   <si>
-    <t>D5-1</t>
+    <t>LO 04-01 Describe the formula for calculating an individual taxpayer’s taxes due or refund.</t>
   </si>
   <si>
-    <t>D5-2</t>
+    <t>LO 04-02 Explain the requirements for determining who qualifies as a taxpayer’s dependent.</t>
   </si>
   <si>
-    <t>D5-3</t>
+    <t>LO 04-03 Determine a taxpayer’s filing status.</t>
   </si>
   <si>
-    <t>D5-4</t>
+    <t>TF4-01</t>
   </si>
   <si>
-    <t>D5-5</t>
+    <t>True / False</t>
   </si>
   <si>
-    <t>D5-6</t>
+    <t>TF4-02</t>
   </si>
   <si>
-    <t>D5-7</t>
+    <t>TF4-03</t>
   </si>
   <si>
-    <t>D5-8</t>
+    <t>TF4-04</t>
   </si>
   <si>
-    <t>D5-9</t>
+    <t>TF4-05</t>
   </si>
   <si>
-    <t>D5-10</t>
+    <t>TF4-06</t>
   </si>
   <si>
-    <t>D5-11</t>
+    <t>MC4-07</t>
   </si>
   <si>
-    <t>D5-12</t>
+    <t>MC4-08</t>
   </si>
   <si>
-    <t>D5-13</t>
+    <t>MC4-09</t>
   </si>
   <si>
-    <t>D5-14</t>
+    <t>MC4-10</t>
   </si>
   <si>
-    <t>D5-15</t>
+    <t>MC4-11</t>
   </si>
   <si>
-    <t>D5-16</t>
+    <t>MC4-12</t>
   </si>
   <si>
-    <t>D5-17</t>
+    <t>MC4-13</t>
   </si>
   <si>
-    <t>D5-18</t>
+    <t>MC4-14</t>
   </si>
   <si>
-    <t>D5-19</t>
+    <t>MC4-15</t>
   </si>
   <si>
-    <t>D5-20</t>
+    <t xml:space="preserve"> 04-01</t>
   </si>
   <si>
-    <t>D5-21</t>
+    <t xml:space="preserve"> 04-02</t>
   </si>
   <si>
-    <t>D5-22</t>
+    <t xml:space="preserve"> 04-03</t>
   </si>
   <si>
-    <t>D5-23</t>
+    <t xml:space="preserve"> The Individual Income Tax Formula</t>
   </si>
   <si>
-    <t>D5-24</t>
+    <t xml:space="preserve"> Personal and Dependency Exemptions</t>
   </si>
   <si>
-    <t>D5-25</t>
-  </si>
-  <si>
-    <t>D5-26</t>
-  </si>
-  <si>
-    <t>D5-27</t>
-  </si>
-  <si>
-    <t>D5-28</t>
-  </si>
-  <si>
-    <t>D5-29</t>
-  </si>
-  <si>
-    <t>D5-30</t>
-  </si>
-  <si>
-    <t>D5-31</t>
-  </si>
-  <si>
-    <t>D5-32</t>
-  </si>
-  <si>
-    <t>D5-33</t>
-  </si>
-  <si>
-    <t>D5-34</t>
-  </si>
-  <si>
-    <t>D5-35</t>
-  </si>
-  <si>
-    <t>D5-36</t>
-  </si>
-  <si>
-    <t>D5-37</t>
-  </si>
-  <si>
-    <t>D5-38</t>
-  </si>
-  <si>
-    <t>P5-39</t>
-  </si>
-  <si>
-    <t>P5-40</t>
-  </si>
-  <si>
-    <t>P5-41</t>
-  </si>
-  <si>
-    <t>P5-43</t>
-  </si>
-  <si>
-    <t>P5-44</t>
-  </si>
-  <si>
-    <t>P5-46</t>
-  </si>
-  <si>
-    <t>P5-47</t>
-  </si>
-  <si>
-    <t>P5-48</t>
-  </si>
-  <si>
-    <t>P5-49</t>
-  </si>
-  <si>
-    <t>P5-50</t>
-  </si>
-  <si>
-    <t>P5-51</t>
-  </si>
-  <si>
-    <t>P5-52</t>
-  </si>
-  <si>
-    <t>P5-53</t>
-  </si>
-  <si>
-    <t>P5-54</t>
-  </si>
-  <si>
-    <t>P5-55</t>
-  </si>
-  <si>
-    <t>P5-56</t>
-  </si>
-  <si>
-    <t>P5-57</t>
-  </si>
-  <si>
-    <t>P5-58</t>
-  </si>
-  <si>
-    <t>P5-59</t>
-  </si>
-  <si>
-    <t>P5-60</t>
-  </si>
-  <si>
-    <t>P5-62</t>
-  </si>
-  <si>
-    <t>P5-63</t>
-  </si>
-  <si>
-    <t>P5-64</t>
-  </si>
-  <si>
-    <t>P5-65</t>
-  </si>
-  <si>
-    <t>P5-66</t>
-  </si>
-  <si>
-    <t>P5-67</t>
-  </si>
-  <si>
-    <t>P5-69</t>
-  </si>
-  <si>
-    <t>P5-70</t>
-  </si>
-  <si>
-    <t>P5-71</t>
-  </si>
-  <si>
-    <t>P5-72</t>
-  </si>
-  <si>
-    <t>CP5-73</t>
-  </si>
-  <si>
-    <t>CP5-74</t>
-  </si>
-  <si>
-    <t>CP5-75</t>
-  </si>
-  <si>
-    <t>CP5-76</t>
-  </si>
-  <si>
-    <t>CP5-77</t>
-  </si>
-  <si>
-    <t>Essay</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Comprehensive Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05-01;  05-02;  05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Realization and Recognition of Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exclusion Provisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Types of Income</t>
+    <t xml:space="preserve"> Filing Status</t>
   </si>
   <si>
     <t>Reflective Thinking</t>
   </si>
   <si>
+    <t>BB Critical Thinking</t>
+  </si>
+  <si>
     <t>Analytical Thinking; Reflective Thinking</t>
   </si>
   <si>
-    <t>Apply</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Understand</t>
+  </si>
+  <si>
+    <t>1 Easy</t>
+  </si>
+  <si>
+    <t>10 min</t>
   </si>
   <si>
     <t>2 Medium</t>
   </si>
   <si>
-    <t>20 min</t>
+    <t>15 min</t>
   </si>
   <si>
-    <t>10 min</t>
+    <t>3 Hard</t>
   </si>
   <si>
     <t>Analyze</t>
   </si>
   <si>
-    <t>3 Hard</t>
+    <t>35 min</t>
   </si>
   <si>
     <t>25 min</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>1 Easy</t>
-  </si>
-  <si>
-    <t>15 min</t>
-  </si>
-  <si>
-    <t>50 min</t>
-  </si>
-  <si>
-    <t>60 min</t>
-  </si>
-  <si>
-    <t>45 min</t>
-  </si>
-  <si>
-    <t>120 min</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>LO 5-1 Apply the concept of realization.</t>
-  </si>
-  <si>
-    <t>LO 5-2 Discuss the distinctions between the various sources of income, including income from services and property.</t>
-  </si>
-  <si>
-    <t>LO 5-3 Apply basic income exclusion provisions to compute gross income.</t>
+    <t>20 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,25 +257,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25777,2612 +25546,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B488869-8407-4030-B979-C4348A012DB7}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="H1" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>96</v>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>115</v>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>101</v>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>102</v>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>103</v>
+      <c r="I3" t="s">
+        <v>47</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
+      <c r="J3" t="s">
+        <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>89</v>
+      <c r="K3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>96</v>
+      <c r="C4" t="s">
+        <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>39</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>115</v>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>115</v>
+      <c r="F4" t="s">
+        <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>101</v>
+      <c r="G4" t="s">
+        <v>43</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>102</v>
+      <c r="H4" t="s">
+        <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>103</v>
+      <c r="I4" t="s">
+        <v>47</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
+      <c r="J4" t="s">
+        <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>92</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>96</v>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>115</v>
+      <c r="D6" t="s">
+        <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>115</v>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>101</v>
+      <c r="F6" t="s">
+        <v>42</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>102</v>
+      <c r="G6" t="s">
+        <v>43</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>103</v>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>11</v>
+      <c r="I6" t="s">
+        <v>45</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>89</v>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>92</v>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>96</v>
+      <c r="C7" t="s">
+        <v>38</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>115</v>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>115</v>
+      <c r="F7" t="s">
+        <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>101</v>
+      <c r="G7" t="s">
+        <v>49</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>102</v>
+      <c r="H7" t="s">
+        <v>48</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>103</v>
+      <c r="I7" t="s">
+        <v>50</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
+      <c r="J7" t="s">
+        <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>89</v>
+      <c r="K7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>92</v>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>96</v>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>115</v>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>115</v>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>101</v>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>102</v>
+      <c r="H8" t="s">
+        <v>46</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>103</v>
+      <c r="I8" t="s">
+        <v>47</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
+      <c r="J8" t="s">
+        <v>10</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>89</v>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>92</v>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>96</v>
+      <c r="C9" t="s">
+        <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>41</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>115</v>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>115</v>
+      <c r="F9" t="s">
+        <v>42</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>101</v>
+      <c r="G9" t="s">
+        <v>49</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>102</v>
+      <c r="H9" t="s">
+        <v>44</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>103</v>
+      <c r="I9" t="s">
+        <v>45</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>11</v>
+      <c r="J9" t="s">
+        <v>10</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>89</v>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>92</v>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>96</v>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>115</v>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>115</v>
+      <c r="F10" t="s">
+        <v>42</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>101</v>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>102</v>
+      <c r="H10" t="s">
+        <v>46</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>103</v>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>11</v>
+      <c r="J10" t="s">
+        <v>10</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>89</v>
+      <c r="K10" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>92</v>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>96</v>
+      <c r="C11" t="s">
+        <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>115</v>
+      <c r="E11" t="s">
+        <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>115</v>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>101</v>
+      <c r="G11" t="s">
+        <v>43</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>102</v>
+      <c r="H11" t="s">
+        <v>46</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>103</v>
+      <c r="I11" t="s">
+        <v>45</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
+      <c r="J11" t="s">
+        <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>89</v>
+      <c r="K11" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>92</v>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>96</v>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>115</v>
+      <c r="E12" t="s">
+        <v>40</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>115</v>
+      <c r="F12" t="s">
+        <v>42</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
+      <c r="G12" t="s">
+        <v>49</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>102</v>
+      <c r="H12" t="s">
+        <v>48</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>103</v>
+      <c r="I12" t="s">
+        <v>51</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>11</v>
+      <c r="J12" t="s">
+        <v>10</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>89</v>
+      <c r="K12" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>92</v>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>96</v>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>115</v>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>115</v>
+      <c r="F13" t="s">
+        <v>42</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
+      <c r="G13" t="s">
+        <v>43</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
+      <c r="H13" t="s">
+        <v>48</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>103</v>
+      <c r="I13" t="s">
+        <v>52</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>11</v>
+      <c r="J13" t="s">
+        <v>10</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>89</v>
+      <c r="K13" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>92</v>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>96</v>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>115</v>
+      <c r="E14" t="s">
+        <v>40</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>115</v>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>101</v>
+      <c r="G14" t="s">
+        <v>49</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>102</v>
+      <c r="H14" t="s">
+        <v>46</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>103</v>
+      <c r="I14" t="s">
+        <v>47</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>11</v>
+      <c r="J14" t="s">
+        <v>10</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>89</v>
+      <c r="K14" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>92</v>
+      <c r="B15" t="s">
+        <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>96</v>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>115</v>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>115</v>
+      <c r="F15" t="s">
+        <v>42</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>101</v>
+      <c r="G15" t="s">
+        <v>49</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>102</v>
+      <c r="H15" t="s">
+        <v>46</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>104</v>
+      <c r="I15" t="s">
+        <v>45</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>11</v>
+      <c r="J15" t="s">
+        <v>10</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>89</v>
+      <c r="K15" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>93</v>
+      <c r="G16" t="s">
+        <v>49</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>94</v>
+      <c r="J16" t="s">
+        <v>10</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="K16" t="s">
         <v>12</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -28396,32 +26137,32 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
